--- a/backend/fms_core/tests/valid_templates/Library_preparation_v4_4_0.xlsx
+++ b/backend/fms_core/tests/valid_templates/Library_preparation_v4_4_0.xlsx
@@ -8315,7 +8315,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.45703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.14"/>
@@ -8517,50 +8517,50 @@
       <c r="P7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="A8" s="12"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="13"/>
-      <c r="J8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="J8" s="2"/>
       <c r="L8" s="13"/>
+      <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="13"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="L9" s="13"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -8685,7 +8685,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -9147,13 +9147,19 @@
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
-      <c r="C44" s="14"/>
+      <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="14"/>
+      <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="13"/>
       <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
       <c r="L44" s="13"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="2"/>
@@ -10500,9 +10506,9 @@
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
-      <c r="C167" s="2"/>
+      <c r="C167" s="14"/>
       <c r="D167" s="2"/>
-      <c r="E167" s="2"/>
+      <c r="E167" s="14"/>
       <c r="F167" s="2"/>
       <c r="G167" s="2"/>
       <c r="J167" s="2"/>
@@ -11054,8 +11060,8 @@
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
-      <c r="G217" s="13"/>
-      <c r="J217" s="13"/>
+      <c r="G217" s="2"/>
+      <c r="J217" s="2"/>
       <c r="L217" s="13"/>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12858,6 +12864,9 @@
       <c r="D381" s="2"/>
       <c r="E381" s="2"/>
       <c r="F381" s="2"/>
+      <c r="G381" s="13"/>
+      <c r="J381" s="13"/>
+      <c r="L381" s="13"/>
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A382" s="2"/>
@@ -17779,7 +17788,14 @@
       <c r="E996" s="2"/>
       <c r="F996" s="2"/>
     </row>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A997" s="2"/>
+      <c r="B997" s="2"/>
+      <c r="C997" s="2"/>
+      <c r="D997" s="2"/>
+      <c r="E997" s="2"/>
+      <c r="F997" s="2"/>
+    </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -17788,67 +17804,67 @@
     <mergeCell ref="F5:H5"/>
   </mergeCells>
   <dataValidations count="16">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B9:B380" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B10:B381" type="list">
       <formula1>Index!$A$2:$A$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F9:G380" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F10:G381" type="list">
       <formula1>Index!$B$2:$B$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N9:N43" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N10:N44" type="list">
       <formula1>Index!$G$2:$G$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D9:D380" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D10:D381" type="list">
       <formula1>Index!$I$2:$I$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H9:H43" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H10:H44" type="list">
       <formula1>Index!$C$2:$C$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L9:L380" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L10:L381" type="list">
       <formula1>Index!$F$2:$F$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I9:I43" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I10:I44" type="list">
       <formula1>Index!$D$2:$D$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J9:J380" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J10:J381" type="list">
       <formula1>Index!$E$2:$E$11</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B8" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B9" type="list">
       <formula1>Info!$A$2:$A$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D7:D8" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D7:D9" type="list">
       <formula1>Info!$I$2:$I$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F7:G8" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F7:G9" type="list">
       <formula1>Info!$B$2:$B$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H8" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H9" type="list">
       <formula1>Info!$C$2:$C$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I8" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I9" type="list">
       <formula1>Info!$D$2:$D$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J7:J8" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J7:J9" type="list">
       <formula1>Info!$E$2:$E$11</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L7:L8" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L7:L9" type="list">
       <formula1>Info!$F$2:$F$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N7:N8" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N7:N9" type="list">
       <formula1>Info!$G$2:$G$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -17868,7 +17884,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB1000"/>
+  <dimension ref="A1:AB1001"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -17876,7 +17892,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.45703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="29.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.3"/>
@@ -18125,48 +18141,20 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="18" t="s">
-        <v>33</v>
-      </c>
+      <c r="A7" s="18"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="C7" s="2"/>
       <c r="D7" s="18"/>
-      <c r="E7" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>60</v>
-      </c>
+      <c r="H7" s="19"/>
       <c r="J7" s="19"/>
-      <c r="K7" s="20" t="n">
-        <v>100</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="K7" s="20"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="18" t="s">
@@ -18174,59 +18162,87 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="0" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H8" s="19" t="s">
         <v>60</v>
       </c>
       <c r="J8" s="19"/>
       <c r="K8" s="20" t="n">
-        <v>40.5</v>
+        <v>100</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>69</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>63</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="18"/>
+      <c r="A9" s="18" t="s">
+        <v>33</v>
+      </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="D9" s="18"/>
-      <c r="H9" s="19"/>
+      <c r="E9" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>60</v>
+      </c>
       <c r="J9" s="19"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="21"/>
+      <c r="K9" s="20" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="18"/>
@@ -18404,7 +18420,7 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="21"/>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="18"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -21605,18 +21621,20 @@
       <c r="R220" s="21"/>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A221" s="2"/>
+      <c r="A221" s="18"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
-      <c r="D221" s="2"/>
-      <c r="H221" s="13"/>
-      <c r="K221" s="2"/>
+      <c r="D221" s="18"/>
+      <c r="H221" s="19"/>
+      <c r="J221" s="19"/>
+      <c r="K221" s="20"/>
       <c r="L221" s="2"/>
       <c r="M221" s="2"/>
       <c r="N221" s="2"/>
       <c r="O221" s="2"/>
       <c r="P221" s="2"/>
-      <c r="Q221" s="21"/>
+      <c r="Q221" s="2"/>
+      <c r="R221" s="21"/>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="2"/>
@@ -23911,6 +23929,8 @@
       <c r="M385" s="2"/>
       <c r="N385" s="2"/>
       <c r="O385" s="2"/>
+      <c r="P385" s="2"/>
+      <c r="Q385" s="21"/>
     </row>
     <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A386" s="2"/>
@@ -25057,6 +25077,7 @@
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
       <c r="D481" s="2"/>
+      <c r="H481" s="13"/>
       <c r="K481" s="2"/>
       <c r="L481" s="2"/>
       <c r="M481" s="2"/>
@@ -30772,61 +30793,72 @@
       <c r="N1000" s="2"/>
       <c r="O1000" s="2"/>
     </row>
+    <row r="1001" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1001" s="2"/>
+      <c r="B1001" s="2"/>
+      <c r="C1001" s="2"/>
+      <c r="D1001" s="2"/>
+      <c r="K1001" s="2"/>
+      <c r="L1001" s="2"/>
+      <c r="M1001" s="2"/>
+      <c r="N1001" s="2"/>
+      <c r="O1001" s="2"/>
+    </row>
   </sheetData>
   <dataValidations count="14">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O9:O220 N221:N384" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O10:O221 N222:N385" type="list">
       <formula1>INDIRECT(SUBSTITUTE(#ref!," ","_"))</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N9:N220 M221:M384" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N10:N221 M222:M385" type="list">
       <formula1>Index!$K$2:$K$16</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H9:H480" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H10:H481" type="list">
       <formula1>Index!$H$2:$H$11</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P9:P220 O221:O384" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P10:P221 O222:O385" type="list">
       <formula1>Index!$J$2:$J$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A9:A100" type="list">
-      <formula1>'Library Batch'!$A$7:$A$106</formula1>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A10:A101" type="list">
+      <formula1>'Library Batch'!$A$7:$A$107</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q9:Q220 P221:P384" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q10:Q221 P222:P385" type="none">
       <formula1>Index!$J$2:$J$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R9:R220 Q221:Q384" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R10:R221 Q222:Q385" type="list">
       <formula1>Index!$C$18:$C$20</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A5:A8" type="list">
-      <formula1>'Library Batch'!$A$11:$A$110</formula1>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A5:A9" type="list">
+      <formula1>'Library Batch'!$A$12:$A$111</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H5:H8" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H5:H9" type="list">
       <formula1>Info!$H$2:$H$11</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N5:N8" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N5:N9" type="list">
       <formula1>Info!$K$2:$K$16</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O5:O8" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O5:O9" type="list">
       <formula1>INDIRECT(SUBSTITUTE(M5," ","_"))</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P5:P8" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P5:P9" type="list">
       <formula1>Info!$J$2:$J$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q5:Q8" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q5:Q9" type="none">
       <formula1>Info!$J$2:$J$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R5:R8" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R5:R9" type="list">
       <formula1>Info!$C$18:$C$20</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -30852,7 +30884,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.56"/>
   </cols>
@@ -31900,7 +31932,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.45703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.43"/>
